--- a/01_Input/Local_Counts/013_Merged.xlsx
+++ b/01_Input/Local_Counts/013_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Local_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Local_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91306B45-C177-4BB1-9011-9902F18838B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{91306B45-C177-4BB1-9011-9902F18838B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5035A93-0DBC-4086-A982-DBE1F97866A6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45268.305555555555</v>
+        <v>45268.3125</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45268.3125</v>
+        <v>45268.319444444445</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45268.319444444445</v>
+        <v>45268.326388888891</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45268.326388888891</v>
+        <v>45268.333333333336</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45268.333333333336</v>
+        <v>45268.340277777781</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45268.340277777781</v>
+        <v>45268.347222222219</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45268.347222222219</v>
+        <v>45268.354166666664</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45268.354166666664</v>
+        <v>45268.361111111109</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45268.361111111109</v>
+        <v>45268.368055555555</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45268.368055555555</v>
+        <v>45268.375</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
